--- a/data/trans_orig/P23-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P23-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>243131</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>219631</v>
+        <v>215711</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>268928</v>
+        <v>267161</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3503274870750852</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3164662869802801</v>
+        <v>0.3108169360851498</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.387497130194598</v>
+        <v>0.3849519090301679</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>492</v>
@@ -764,19 +764,19 @@
         <v>484100</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>461604</v>
+        <v>460994</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>506640</v>
+        <v>507664</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7032745356668696</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.670593575501486</v>
+        <v>0.6697078771770415</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7360203454156341</v>
+        <v>0.737507130633743</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>733</v>
@@ -785,19 +785,19 @@
         <v>727231</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>691324</v>
+        <v>689837</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>766956</v>
+        <v>763474</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5260783114626848</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5001029047925648</v>
+        <v>0.4990273860382729</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5548149172888592</v>
+        <v>0.5522963390146249</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>131600</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>112011</v>
+        <v>110944</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>153083</v>
+        <v>153741</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1896218058576864</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1613960635963816</v>
+        <v>0.1598582443459947</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2205761664861711</v>
+        <v>0.2215247828979132</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>42</v>
@@ -835,19 +835,19 @@
         <v>42452</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30797</v>
+        <v>30993</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>55489</v>
+        <v>55639</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06167236574587565</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04474043329398112</v>
+        <v>0.04502497345657847</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08061176741588864</v>
+        <v>0.08082994522984027</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>174</v>
@@ -856,19 +856,19 @@
         <v>174052</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>149812</v>
+        <v>150776</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>199048</v>
+        <v>196809</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1259090770806537</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1083740755747072</v>
+        <v>0.1090708883016114</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1439911507280004</v>
+        <v>0.1423717365563857</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>17571</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10604</v>
+        <v>10118</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27634</v>
+        <v>26642</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02531768830529114</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01527923437758371</v>
+        <v>0.01457937147319876</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03981720425121917</v>
+        <v>0.038387680622959</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -906,19 +906,19 @@
         <v>18353</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11367</v>
+        <v>11447</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28560</v>
+        <v>27383</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02666215163819146</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0165132292630797</v>
+        <v>0.01663005596002509</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04149000245544093</v>
+        <v>0.03978106205239584</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>36</v>
@@ -927,19 +927,19 @@
         <v>35924</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>25781</v>
+        <v>24755</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>48884</v>
+        <v>48713</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02598716702754963</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01865017561754511</v>
+        <v>0.01790744762520644</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03536240347822146</v>
+        <v>0.03523891048649737</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>301710</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>274292</v>
+        <v>276268</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>327403</v>
+        <v>330660</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4347330187619373</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3952259253791616</v>
+        <v>0.3980734225571977</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4717537257683385</v>
+        <v>0.4764470885558813</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>143</v>
@@ -977,19 +977,19 @@
         <v>143446</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>124896</v>
+        <v>125312</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>166920</v>
+        <v>166201</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2083909469490633</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1814425057474898</v>
+        <v>0.1820461321969621</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2424928505930929</v>
+        <v>0.2414486119701427</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>436</v>
@@ -998,19 +998,19 @@
         <v>445156</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>411068</v>
+        <v>413812</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>479415</v>
+        <v>483844</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3220254444291119</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2973662944302267</v>
+        <v>0.2993508562369562</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3468080423226317</v>
+        <v>0.3500120620162846</v>
       </c>
     </row>
     <row r="8">
@@ -1102,19 +1102,19 @@
         <v>365621</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>335780</v>
+        <v>334950</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>399102</v>
+        <v>399598</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.380554875853807</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3494947808023977</v>
+        <v>0.3486308805032075</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4154034924933791</v>
+        <v>0.4159190403483656</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>618</v>
@@ -1123,19 +1123,19 @@
         <v>660878</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>631882</v>
+        <v>629221</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>691433</v>
+        <v>690842</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6824479086067661</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6525058322705023</v>
+        <v>0.6497576700728808</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7139999212972389</v>
+        <v>0.7133903969500073</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>957</v>
@@ -1144,19 +1144,19 @@
         <v>1026499</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>974834</v>
+        <v>982280</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1066727</v>
+        <v>1068951</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.532098819401195</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.505317380284102</v>
+        <v>0.509177484480178</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.552951404354997</v>
+        <v>0.5541043299569212</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>188856</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>164023</v>
+        <v>165649</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>214562</v>
+        <v>215218</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1965701577952381</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1707221005881537</v>
+        <v>0.1724144707809725</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2233253072617818</v>
+        <v>0.2240083840711116</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -1194,19 +1194,19 @@
         <v>80380</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62576</v>
+        <v>64383</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>101176</v>
+        <v>100987</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0830030804890684</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06461823096851949</v>
+        <v>0.06648410422838366</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1044782723429726</v>
+        <v>0.1042832286312979</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>253</v>
@@ -1215,19 +1215,19 @@
         <v>269236</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>241340</v>
+        <v>238258</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>301350</v>
+        <v>298365</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1395618770966524</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1251016026359026</v>
+        <v>0.1235041154854334</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1562088624854779</v>
+        <v>0.1546615014078699</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>26037</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16989</v>
+        <v>17571</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>37102</v>
+        <v>38984</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02710001724161702</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01768317252484142</v>
+        <v>0.01828916316558744</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0386177341030149</v>
+        <v>0.04057610016624571</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -1265,19 +1265,19 @@
         <v>15320</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8198</v>
+        <v>8930</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25346</v>
+        <v>24908</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0158200863479037</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.008465079675605473</v>
+        <v>0.009221947716840755</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0261728574761232</v>
+        <v>0.02572057886093678</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>41</v>
@@ -1286,19 +1286,19 @@
         <v>41357</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>30054</v>
+        <v>30725</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>54884</v>
+        <v>55594</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02143772952670263</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01557912036784761</v>
+        <v>0.01592663021930763</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02844975689839991</v>
+        <v>0.0288180767684202</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>380244</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>348050</v>
+        <v>350958</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>412216</v>
+        <v>415557</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3957749491093379</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.362266181018468</v>
+        <v>0.3652923864052162</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4290526733388384</v>
+        <v>0.4325306695873464</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>199</v>
@@ -1336,19 +1336,19 @@
         <v>211816</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>186157</v>
+        <v>187844</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>239490</v>
+        <v>241950</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2187289245562619</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1922331072105591</v>
+        <v>0.1939745253089513</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2473064628829871</v>
+        <v>0.249847215453464</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>552</v>
@@ -1357,19 +1357,19 @@
         <v>592059</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>554417</v>
+        <v>548769</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>637952</v>
+        <v>635024</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.30690157397545</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2873891284220668</v>
+        <v>0.2844612603699243</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3306905212292352</v>
+        <v>0.3291727004476201</v>
       </c>
     </row>
     <row r="13">
@@ -1461,19 +1461,19 @@
         <v>290232</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>264599</v>
+        <v>262633</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>316860</v>
+        <v>317609</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.427750125020786</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3899713359460451</v>
+        <v>0.3870742780929853</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.466994883650357</v>
+        <v>0.4680987692632998</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>479</v>
@@ -1482,19 +1482,19 @@
         <v>474157</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>450346</v>
+        <v>450093</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>497590</v>
+        <v>496778</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.693373318762933</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6585532867923718</v>
+        <v>0.658184333449628</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7276403245788722</v>
+        <v>0.7264521924827576</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>752</v>
@@ -1503,19 +1503,19 @@
         <v>764389</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>730034</v>
+        <v>727288</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>799722</v>
+        <v>802190</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5610815351227769</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.535863473305797</v>
+        <v>0.5338478988237294</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5870164678640369</v>
+        <v>0.5888279391164816</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>134301</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>113588</v>
+        <v>114879</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>157114</v>
+        <v>158029</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1979359031286884</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1674086879402697</v>
+        <v>0.1693102546780943</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2315580077459113</v>
+        <v>0.2329057819549768</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>41</v>
@@ -1553,19 +1553,19 @@
         <v>39683</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>28456</v>
+        <v>29894</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>51960</v>
+        <v>53386</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05802936883407061</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0416122360247155</v>
+        <v>0.04371450694808057</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07598264544007441</v>
+        <v>0.0780676243638401</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>171</v>
@@ -1574,19 +1574,19 @@
         <v>173984</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>148265</v>
+        <v>151065</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>197008</v>
+        <v>200821</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1277088448767942</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1088300629709705</v>
+        <v>0.1108859569995692</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1446085968301009</v>
+        <v>0.1474080430003006</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>16269</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9600</v>
+        <v>9585</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25937</v>
+        <v>25741</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02397767012590364</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0141492373688069</v>
+        <v>0.01412717943153569</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03822608711922757</v>
+        <v>0.03793729388864235</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -1624,19 +1624,19 @@
         <v>16853</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10432</v>
+        <v>10139</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25722</v>
+        <v>26202</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02464468867758855</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01525476417640505</v>
+        <v>0.01482590425534351</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03761372875102333</v>
+        <v>0.03831660951028512</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>34</v>
@@ -1645,19 +1645,19 @@
         <v>33122</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23393</v>
+        <v>22961</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46944</v>
+        <v>44584</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02431248472852705</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01717087674237439</v>
+        <v>0.01685363183196898</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0344579333463984</v>
+        <v>0.03272570555847223</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>237706</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>210851</v>
+        <v>212023</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>263959</v>
+        <v>268047</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.350336301724622</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.310755836037605</v>
+        <v>0.3124838381375173</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3890281245168272</v>
+        <v>0.3950536760149176</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>158</v>
@@ -1695,19 +1695,19 @@
         <v>153148</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>131978</v>
+        <v>131149</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>175569</v>
+        <v>175372</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2239526237254079</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1929952753153891</v>
+        <v>0.1917834671877206</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2567399550904167</v>
+        <v>0.2564508194124659</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>380</v>
@@ -1716,19 +1716,19 @@
         <v>390854</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>358505</v>
+        <v>358477</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>422013</v>
+        <v>424010</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2868971352719019</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2631519491856378</v>
+        <v>0.2631315406829358</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3097686939567311</v>
+        <v>0.311234090252566</v>
       </c>
     </row>
     <row r="18">
@@ -1820,19 +1820,19 @@
         <v>361682</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>332828</v>
+        <v>333418</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>389958</v>
+        <v>392234</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3838606859531068</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3532370260868338</v>
+        <v>0.353863005183254</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4138710429707246</v>
+        <v>0.4162862029600293</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>615</v>
@@ -1841,19 +1841,19 @@
         <v>640389</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>609688</v>
+        <v>606143</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>672640</v>
+        <v>669174</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6165812363331175</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5870220576441173</v>
+        <v>0.5836091626660361</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6476333948423917</v>
+        <v>0.6442965264208442</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1000</v>
@@ -1862,19 +1862,19 @@
         <v>1002071</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>954874</v>
+        <v>956591</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1045183</v>
+        <v>1048927</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5058832001228203</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4820566724691768</v>
+        <v>0.4829235892802802</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.52764784501536</v>
+        <v>0.5295382959056973</v>
       </c>
     </row>
     <row r="20">
@@ -1891,19 +1891,19 @@
         <v>174795</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>153828</v>
+        <v>153804</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>197950</v>
+        <v>198765</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1855140211536207</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1632612929555505</v>
+        <v>0.1632352700524257</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2100884506190428</v>
+        <v>0.2109533215120491</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>90</v>
@@ -1912,19 +1912,19 @@
         <v>93829</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>77186</v>
+        <v>76542</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>115817</v>
+        <v>113851</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0903407427066785</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07431640735310754</v>
+        <v>0.07369656378141175</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1115115047858151</v>
+        <v>0.1096187582016585</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>276</v>
@@ -1933,19 +1933,19 @@
         <v>268624</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>236529</v>
+        <v>238553</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>296747</v>
+        <v>301066</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1356117555440443</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1194089677095697</v>
+        <v>0.1204306658045272</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1498092455960852</v>
+        <v>0.1519897356960924</v>
       </c>
     </row>
     <row r="21">
@@ -1962,19 +1962,19 @@
         <v>25161</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16644</v>
+        <v>16620</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>37471</v>
+        <v>37232</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02670336763004804</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01766456269037043</v>
+        <v>0.01763887929704451</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0397690539406438</v>
+        <v>0.0395148384534043</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>32</v>
@@ -1983,19 +1983,19 @@
         <v>33993</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>24058</v>
+        <v>23880</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>48564</v>
+        <v>46536</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03272889905198706</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02316379224273743</v>
+        <v>0.0229920962546904</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04675813298010307</v>
+        <v>0.0448055135188152</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>58</v>
@@ -2004,19 +2004,19 @@
         <v>59153</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>46049</v>
+        <v>44089</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>76676</v>
+        <v>74459</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02986273835219962</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02324715558742462</v>
+        <v>0.02225785885122121</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03870873472727297</v>
+        <v>0.03758992344371846</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>380584</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>353072</v>
+        <v>351233</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>410240</v>
+        <v>410923</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4039219252632245</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3747229407363953</v>
+        <v>0.3727708360870876</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4353968325099797</v>
+        <v>0.4361215507717201</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>260</v>
@@ -2054,19 +2054,19 @@
         <v>270402</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>244837</v>
+        <v>244860</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>300476</v>
+        <v>298869</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.260349121908217</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2357348774982796</v>
+        <v>0.235757287179788</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.289305753893657</v>
+        <v>0.2877579841580781</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>657</v>
@@ -2075,19 +2075,19 @@
         <v>650986</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>611822</v>
+        <v>602601</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>692677</v>
+        <v>686321</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3286423059809357</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3088706821922055</v>
+        <v>0.30421589070776</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3496894821076088</v>
+        <v>0.3464808292210335</v>
       </c>
     </row>
     <row r="23">
@@ -2179,19 +2179,19 @@
         <v>1260667</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1202026</v>
+        <v>1206566</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1319433</v>
+        <v>1313169</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3848775836841052</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.366974616693338</v>
+        <v>0.3683608531573612</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4028186636774286</v>
+        <v>0.4009062984391998</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2204</v>
@@ -2200,19 +2200,19 @@
         <v>2259523</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2204173</v>
+        <v>2202203</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2314677</v>
+        <v>2317479</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6686568692120715</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6522772763982524</v>
+        <v>0.6516942246115297</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6849785522664467</v>
+        <v>0.6858075479348056</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3442</v>
@@ -2221,19 +2221,19 @@
         <v>3520190</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3439826</v>
+        <v>3430132</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3601975</v>
+        <v>3597944</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5289782096862725</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5169018545466164</v>
+        <v>0.5154451572413167</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5412679309033197</v>
+        <v>0.5406622185011146</v>
       </c>
     </row>
     <row r="25">
@@ -2250,19 +2250,19 @@
         <v>629553</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>583816</v>
+        <v>584040</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>678145</v>
+        <v>678617</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.192200473163617</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1782372219741326</v>
+        <v>0.1783055188693108</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2070355206324819</v>
+        <v>0.20717964404558</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>248</v>
@@ -2271,19 +2271,19 @@
         <v>256344</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>228174</v>
+        <v>226441</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>287151</v>
+        <v>287914</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07585934664153964</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06752307648619946</v>
+        <v>0.06701028631251017</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08497610494943864</v>
+        <v>0.08520192198835411</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>874</v>
@@ -2292,19 +2292,19 @@
         <v>885897</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>828148</v>
+        <v>828244</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>945100</v>
+        <v>937279</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1331234720694813</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1244456136212019</v>
+        <v>0.1244600030404251</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1420198992640552</v>
+        <v>0.1408446444643675</v>
       </c>
     </row>
     <row r="26">
@@ -2321,19 +2321,19 @@
         <v>85037</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>68635</v>
+        <v>68576</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>104211</v>
+        <v>105855</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02596149507310007</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02095411720060488</v>
+        <v>0.02093609705348565</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03181543208752086</v>
+        <v>0.03231726340663656</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>85</v>
@@ -2342,19 +2342,19 @@
         <v>84519</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>67147</v>
+        <v>67781</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>103755</v>
+        <v>103209</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02501146116825536</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01987083731027446</v>
+        <v>0.02005832963801561</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03070395022692473</v>
+        <v>0.0305425005472249</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>169</v>
@@ -2363,19 +2363,19 @@
         <v>169556</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>146280</v>
+        <v>144982</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>196126</v>
+        <v>198319</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02547907620959245</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02198149849235814</v>
+        <v>0.02178641612007074</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0294718214586715</v>
+        <v>0.02980131386434762</v>
       </c>
     </row>
     <row r="27">
@@ -2392,19 +2392,19 @@
         <v>1300244</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1241488</v>
+        <v>1246851</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1358712</v>
+        <v>1355781</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3969604480791778</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3790222814535405</v>
+        <v>0.3806596136529921</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4148104301233219</v>
+        <v>0.4139157013789906</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>760</v>
@@ -2413,19 +2413,19 @@
         <v>778811</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>730738</v>
+        <v>722976</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>827496</v>
+        <v>829703</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2304723229781336</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2162460898598537</v>
+        <v>0.2139491491364316</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2448793459129633</v>
+        <v>0.2455325604235083</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2025</v>
@@ -2434,19 +2434,19 @@
         <v>2079056</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2003973</v>
+        <v>2012668</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2162508</v>
+        <v>2157230</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3124192420346537</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.301136588407026</v>
+        <v>0.3024431126145671</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3249596318384336</v>
+        <v>0.3241665405739393</v>
       </c>
     </row>
     <row r="28">
@@ -2778,19 +2778,19 @@
         <v>237577</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>214751</v>
+        <v>210820</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>264341</v>
+        <v>262273</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3377216510263407</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3052740949282233</v>
+        <v>0.2996860110077615</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3757675136368489</v>
+        <v>0.3728285477807802</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>433</v>
@@ -2799,19 +2799,19 @@
         <v>461670</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>434351</v>
+        <v>431810</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>486436</v>
+        <v>485015</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.662320466159532</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6231278244512986</v>
+        <v>0.6194824057200614</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.697849628485217</v>
+        <v>0.6958112694072647</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>662</v>
@@ -2820,19 +2820,19 @@
         <v>699247</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>660151</v>
+        <v>660948</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>737631</v>
+        <v>737167</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4992771939349212</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.471361968472343</v>
+        <v>0.4719307404506283</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5266840151760589</v>
+        <v>0.526352913145122</v>
       </c>
     </row>
     <row r="5">
@@ -2849,19 +2849,19 @@
         <v>196310</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>171173</v>
+        <v>175030</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>222141</v>
+        <v>222590</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2790592577699538</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2433264603059339</v>
+        <v>0.248810037571565</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3157794267251596</v>
+        <v>0.3164171958167772</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>69</v>
@@ -2870,19 +2870,19 @@
         <v>73539</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>58103</v>
+        <v>58732</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>90208</v>
+        <v>92443</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1055003942379844</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08335536824149457</v>
+        <v>0.08425738523219402</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1294141711477326</v>
+        <v>0.1326204839026754</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>254</v>
@@ -2891,19 +2891,19 @@
         <v>269849</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>238857</v>
+        <v>243413</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>301814</v>
+        <v>300001</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1926775609883489</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1705490112392875</v>
+        <v>0.1738020366113345</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2155016310590165</v>
+        <v>0.214207250141589</v>
       </c>
     </row>
     <row r="6">
@@ -2920,19 +2920,19 @@
         <v>10461</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5408</v>
+        <v>5477</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17970</v>
+        <v>18417</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01487127386497523</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007687097639299576</v>
+        <v>0.007786167513624618</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02554491829079296</v>
+        <v>0.02617977276272878</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -2941,19 +2941,19 @@
         <v>13422</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7357</v>
+        <v>7170</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24819</v>
+        <v>22291</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0192560038644079</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01055425420199977</v>
+        <v>0.01028681573117658</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03560567106543415</v>
+        <v>0.03197861152653422</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -2962,19 +2962,19 @@
         <v>23884</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>15244</v>
+        <v>14521</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>35948</v>
+        <v>35248</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01705359062813168</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01088462723180031</v>
+        <v>0.01036842093880067</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02566751972746716</v>
+        <v>0.02516810428648881</v>
       </c>
     </row>
     <row r="7">
@@ -2991,19 +2991,19 @@
         <v>259121</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>233486</v>
+        <v>234849</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>287545</v>
+        <v>286573</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3683478173387303</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.331906903798015</v>
+        <v>0.3338446100027311</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.40875232148583</v>
+        <v>0.4073709953055576</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>136</v>
@@ -3012,19 +3012,19 @@
         <v>148418</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>127485</v>
+        <v>127470</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>171204</v>
+        <v>173609</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2129231357380757</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1828923406425849</v>
+        <v>0.1828712200527693</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2456123265089462</v>
+        <v>0.2490617883012795</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>385</v>
@@ -3033,19 +3033,19 @@
         <v>407539</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>374865</v>
+        <v>371478</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>442957</v>
+        <v>440904</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2909916544485982</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2676613627154228</v>
+        <v>0.2652431031059174</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3162806431998272</v>
+        <v>0.314814632187421</v>
       </c>
     </row>
     <row r="8">
@@ -3137,19 +3137,19 @@
         <v>353707</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>323620</v>
+        <v>322682</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>383904</v>
+        <v>386627</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3478225544305067</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3182359197735001</v>
+        <v>0.3173137575308718</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3775168993361904</v>
+        <v>0.3801950389473479</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>585</v>
@@ -3158,19 +3158,19 @@
         <v>643516</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>612783</v>
+        <v>611100</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>674833</v>
+        <v>674111</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6234509364002963</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5936764156536086</v>
+        <v>0.5920455861968992</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6537913498192416</v>
+        <v>0.6530914296126527</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>913</v>
@@ -3179,19 +3179,19 @@
         <v>997223</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>949725</v>
+        <v>947028</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1044365</v>
+        <v>1040513</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4866635039765382</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4634835650291163</v>
+        <v>0.4621673330203551</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5096697828707553</v>
+        <v>0.5077898957991441</v>
       </c>
     </row>
     <row r="10">
@@ -3208,19 +3208,19 @@
         <v>257713</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>229518</v>
+        <v>228455</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>286245</v>
+        <v>287347</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2534251234491984</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2256994693270833</v>
+        <v>0.224654205516964</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.281482855292001</v>
+        <v>0.2825663173292227</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>90</v>
@@ -3229,19 +3229,19 @@
         <v>98321</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>80728</v>
+        <v>79986</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>120402</v>
+        <v>118511</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09525495314605167</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07821078820394953</v>
+        <v>0.07749188085908529</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.116647470695615</v>
+        <v>0.1148161857534471</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>326</v>
@@ -3250,19 +3250,19 @@
         <v>356033</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>324022</v>
+        <v>324494</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>389715</v>
+        <v>396702</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1737508298303599</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1581285784891592</v>
+        <v>0.1583589753209216</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1901884276020057</v>
+        <v>0.1935978180056413</v>
       </c>
     </row>
     <row r="11">
@@ -3279,19 +3279,19 @@
         <v>29356</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19316</v>
+        <v>19926</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>42389</v>
+        <v>43615</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02886804805701139</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01899462745138747</v>
+        <v>0.01959491798646981</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04168403188327021</v>
+        <v>0.04288898415231614</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -3300,19 +3300,19 @@
         <v>21379</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13077</v>
+        <v>13403</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>33684</v>
+        <v>33457</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02071247589108903</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0126696383894051</v>
+        <v>0.01298498369850202</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03263397868264397</v>
+        <v>0.03241377409449844</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>45</v>
@@ -3321,19 +3321,19 @@
         <v>50736</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>37160</v>
+        <v>37271</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>67317</v>
+        <v>65683</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0247598812001891</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01813481963620733</v>
+        <v>0.0181889647058668</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03285189211924411</v>
+        <v>0.03205441878337825</v>
       </c>
     </row>
     <row r="12">
@@ -3350,19 +3350,19 @@
         <v>376142</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>343707</v>
+        <v>345101</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>406898</v>
+        <v>405765</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3698842740632834</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3379885618851662</v>
+        <v>0.3393594943448921</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4001283284217892</v>
+        <v>0.3990147962429199</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>246</v>
@@ -3371,19 +3371,19 @@
         <v>268968</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>241162</v>
+        <v>240313</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>298027</v>
+        <v>298369</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.260581634562563</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2336422787804455</v>
+        <v>0.2328197305171976</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2887341792528256</v>
+        <v>0.2890653595148294</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>591</v>
@@ -3392,19 +3392,19 @@
         <v>645110</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>602247</v>
+        <v>600721</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>690275</v>
+        <v>694001</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3148257849929129</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2939077008459653</v>
+        <v>0.2931631894690115</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3368671171660931</v>
+        <v>0.3386854792322276</v>
       </c>
     </row>
     <row r="13">
@@ -3496,19 +3496,19 @@
         <v>266459</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>242213</v>
+        <v>239867</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>296876</v>
+        <v>297231</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3517037925705109</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3197013031680404</v>
+        <v>0.3166048233801734</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3918520397592797</v>
+        <v>0.3923204561722361</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>403</v>
@@ -3517,19 +3517,19 @@
         <v>439041</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>407943</v>
+        <v>409978</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>466068</v>
+        <v>467683</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5656445991226577</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5255786297791774</v>
+        <v>0.5282015895708633</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6004650185730671</v>
+        <v>0.6025466426897261</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>649</v>
@@ -3538,19 +3538,19 @@
         <v>705500</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>666300</v>
+        <v>669099</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>746749</v>
+        <v>748058</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4599682351153067</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4344107932332479</v>
+        <v>0.4362359293651714</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4868617021262128</v>
+        <v>0.4877149214025945</v>
       </c>
     </row>
     <row r="15">
@@ -3567,19 +3567,19 @@
         <v>176487</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>153706</v>
+        <v>152605</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>204387</v>
+        <v>203593</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2329484374536703</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2028796930505403</v>
+        <v>0.2014263952755576</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.269774593969184</v>
+        <v>0.2687263753638648</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>95</v>
@@ -3588,19 +3588,19 @@
         <v>107241</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>86023</v>
+        <v>86414</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>128487</v>
+        <v>128111</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1381657559507907</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1108284543511629</v>
+        <v>0.1113331704478217</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1655376593020631</v>
+        <v>0.1650538071914974</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>253</v>
@@ -3609,19 +3609,19 @@
         <v>283728</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>253617</v>
+        <v>251590</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>317631</v>
+        <v>315848</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1849837955455405</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1653520687519916</v>
+        <v>0.1640305050409138</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2070872332630665</v>
+        <v>0.2059249648645562</v>
       </c>
     </row>
     <row r="16">
@@ -3638,19 +3638,19 @@
         <v>28977</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18179</v>
+        <v>19008</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42613</v>
+        <v>41156</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03824786172967773</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02399454281639502</v>
+        <v>0.02508930726551598</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05624622624878309</v>
+        <v>0.05432230130898201</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -3659,19 +3659,19 @@
         <v>21619</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12776</v>
+        <v>13586</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31944</v>
+        <v>32896</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02785376112292866</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01645971268727242</v>
+        <v>0.01750362549006504</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04115573031984143</v>
+        <v>0.04238246225951271</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -3680,19 +3680,19 @@
         <v>50597</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36597</v>
+        <v>37131</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>67745</v>
+        <v>67395</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03298794181968186</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02386022990859914</v>
+        <v>0.02420864644719882</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04416829861347753</v>
+        <v>0.04393967145489254</v>
       </c>
     </row>
     <row r="17">
@@ -3709,19 +3709,19 @@
         <v>285700</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>257048</v>
+        <v>258921</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>313817</v>
+        <v>313965</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.377099908246141</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3392821585710655</v>
+        <v>0.3417538653433603</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4142130683939376</v>
+        <v>0.4144079345805864</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>187</v>
@@ -3730,19 +3730,19 @@
         <v>208276</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>184341</v>
+        <v>181235</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>239030</v>
+        <v>233236</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2683358838036228</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2374982481480938</v>
+        <v>0.2334965817538619</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3079571226787293</v>
+        <v>0.3004932145988199</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>446</v>
@@ -3751,19 +3751,19 @@
         <v>493976</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>454777</v>
+        <v>456786</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>532003</v>
+        <v>533036</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3220600275194709</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2965031015024123</v>
+        <v>0.2978127683721843</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3468528927832741</v>
+        <v>0.3475264266005262</v>
       </c>
     </row>
     <row r="18">
@@ -3855,19 +3855,19 @@
         <v>374131</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>340275</v>
+        <v>343346</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>405990</v>
+        <v>405363</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3947619903812397</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3590387032190523</v>
+        <v>0.3622785748879014</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4283776814565898</v>
+        <v>0.4277157567208584</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>617</v>
@@ -3876,19 +3876,19 @@
         <v>642609</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>612067</v>
+        <v>606222</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>675849</v>
+        <v>672657</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6114755208842587</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5824136779625416</v>
+        <v>0.5768517679582627</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6431052419608946</v>
+        <v>0.640067504953039</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>975</v>
@@ -3897,19 +3897,19 @@
         <v>1016740</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>966610</v>
+        <v>973586</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1059318</v>
+        <v>1061466</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5087124108204935</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4836305397440162</v>
+        <v>0.4871206182554013</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5300159172645639</v>
+        <v>0.5310906348490179</v>
       </c>
     </row>
     <row r="20">
@@ -3926,19 +3926,19 @@
         <v>208329</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>181960</v>
+        <v>184025</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>235450</v>
+        <v>234954</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2198173228829712</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1919934182827524</v>
+        <v>0.1941725389460715</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2484328716700053</v>
+        <v>0.2479099611270375</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>106</v>
@@ -3947,19 +3947,19 @@
         <v>114120</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>96063</v>
+        <v>93803</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>136894</v>
+        <v>135029</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1085909949589122</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09140870003650374</v>
+        <v>0.08925886685172836</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1302616615117934</v>
+        <v>0.1284866825504129</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>304</v>
@@ -3968,19 +3968,19 @@
         <v>322449</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>289780</v>
+        <v>288068</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>360317</v>
+        <v>354042</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1613332642206337</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1449873394216764</v>
+        <v>0.1441311475296584</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1802797583263427</v>
+        <v>0.1771400751286141</v>
       </c>
     </row>
     <row r="21">
@@ -3997,19 +3997,19 @@
         <v>27106</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18412</v>
+        <v>18003</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>40014</v>
+        <v>39146</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02860025586773976</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01942680560394944</v>
+        <v>0.01899582540316975</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04222015140582414</v>
+        <v>0.0413047949494048</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>17</v>
@@ -4018,19 +4018,19 @@
         <v>17439</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>10677</v>
+        <v>10499</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>27085</v>
+        <v>27039</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01659377219814143</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01015938259646777</v>
+        <v>0.009990483465464307</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02577313653016125</v>
+        <v>0.02572866007017066</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>44</v>
@@ -4039,19 +4039,19 @@
         <v>44544</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>32515</v>
+        <v>32420</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>60303</v>
+        <v>58679</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02228711123402847</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01626829518404075</v>
+        <v>0.01622108745158042</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03017157025902681</v>
+        <v>0.02935950712679462</v>
       </c>
     </row>
     <row r="22">
@@ -4068,19 +4068,19 @@
         <v>338173</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>310851</v>
+        <v>306534</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>372175</v>
+        <v>366994</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3568204308680493</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3279926724945605</v>
+        <v>0.3234370576306747</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3926974026472589</v>
+        <v>0.3872311716023066</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>262</v>
@@ -4089,19 +4089,19 @@
         <v>276748</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>245924</v>
+        <v>249532</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>305609</v>
+        <v>307549</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2633397119586876</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2340093317177127</v>
+        <v>0.2374427515724185</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2908025407377739</v>
+        <v>0.2926487103417291</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>589</v>
@@ -4110,19 +4110,19 @@
         <v>614920</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>573503</v>
+        <v>572980</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>657998</v>
+        <v>658194</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3076672137248443</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2869446599235149</v>
+        <v>0.2866830541268027</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3292205011958121</v>
+        <v>0.3293188184496443</v>
       </c>
     </row>
     <row r="23">
@@ -4214,19 +4214,19 @@
         <v>1231874</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1173768</v>
+        <v>1175553</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1290552</v>
+        <v>1291020</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3595925917130339</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3426311780195975</v>
+        <v>0.3431520710401239</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.376721196682845</v>
+        <v>0.37685773818117</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2038</v>
@@ -4235,19 +4235,19 @@
         <v>2186836</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2124158</v>
+        <v>2128198</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2246797</v>
+        <v>2252840</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6149142795151091</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5972899294813295</v>
+        <v>0.5984258070145581</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6317744915141436</v>
+        <v>0.6334739281354921</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3199</v>
@@ -4256,19 +4256,19 @@
         <v>3418710</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3326954</v>
+        <v>3333301</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3500897</v>
+        <v>3506043</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4896409307658535</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4764992526307606</v>
+        <v>0.4774083205869287</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5014121042683688</v>
+        <v>0.5021490608342807</v>
       </c>
     </row>
     <row r="25">
@@ -4285,19 +4285,19 @@
         <v>838839</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>788319</v>
+        <v>787011</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>894826</v>
+        <v>892730</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2448628410866639</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2301158886540551</v>
+        <v>0.2297341392484305</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2612059132673246</v>
+        <v>0.260594101140626</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>360</v>
@@ -4306,19 +4306,19 @@
         <v>393221</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>354820</v>
+        <v>354368</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>432538</v>
+        <v>431565</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1105693633877676</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09977134598354585</v>
+        <v>0.09964432216209304</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1216249931697448</v>
+        <v>0.121351314259714</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1137</v>
@@ -4327,19 +4327,19 @@
         <v>1232059</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1169375</v>
+        <v>1168607</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1300502</v>
+        <v>1294259</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1764603333690003</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1674823990326915</v>
+        <v>0.1673724776629829</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1862629307649648</v>
+        <v>0.1853687491612746</v>
       </c>
     </row>
     <row r="26">
@@ -4356,19 +4356,19 @@
         <v>95901</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>75643</v>
+        <v>77124</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>119350</v>
+        <v>117153</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02799415798350346</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02208069570312615</v>
+        <v>0.02251289877533076</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03483919590397055</v>
+        <v>0.03419780491774872</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>67</v>
@@ -4377,19 +4377,19 @@
         <v>73860</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>57160</v>
+        <v>57291</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>92906</v>
+        <v>93652</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02076850746056167</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01607267565131639</v>
+        <v>0.01610957078337414</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02612403102569129</v>
+        <v>0.02633388846083938</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>157</v>
@@ -4398,19 +4398,19 @@
         <v>169761</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>144584</v>
+        <v>143729</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>198886</v>
+        <v>198567</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02431376617200503</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02070785638233402</v>
+        <v>0.02058544392406543</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02848526805732056</v>
+        <v>0.02843949388107034</v>
       </c>
     </row>
     <row r="27">
@@ -4427,19 +4427,19 @@
         <v>1259135</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1205545</v>
+        <v>1204804</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1322655</v>
+        <v>1321324</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3675504092167987</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3519070713502759</v>
+        <v>0.3516907554976396</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3860923104330597</v>
+        <v>0.3857037870982581</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>831</v>
@@ -4448,19 +4448,19 @@
         <v>902410</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>847531</v>
+        <v>848360</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>959085</v>
+        <v>957759</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2537478496365617</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2383162548398573</v>
+        <v>0.2385494381345604</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2696840887902998</v>
+        <v>0.269311392807399</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2011</v>
@@ -4469,19 +4469,19 @@
         <v>2161546</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2086020</v>
+        <v>2085651</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2247937</v>
+        <v>2247997</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3095849696931411</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2987679426513377</v>
+        <v>0.2987150415814971</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3219581933833228</v>
+        <v>0.321966839837012</v>
       </c>
     </row>
     <row r="28">
@@ -4813,19 +4813,19 @@
         <v>285143</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>260245</v>
+        <v>262086</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>311478</v>
+        <v>313374</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4225589297319747</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3856625816863197</v>
+        <v>0.3883911118469562</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4615858702384041</v>
+        <v>0.464395847100517</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>431</v>
@@ -4834,19 +4834,19 @@
         <v>437198</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>412116</v>
+        <v>413744</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>459522</v>
+        <v>460511</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.650854150737297</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6135145793110044</v>
+        <v>0.6159377224715209</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6840880658765157</v>
+        <v>0.6855589621142731</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>711</v>
@@ -4855,19 +4855,19 @@
         <v>722341</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>684322</v>
+        <v>685649</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>756578</v>
+        <v>759630</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5364462869247468</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5082114218729203</v>
+        <v>0.5091967343242688</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5618724320744247</v>
+        <v>0.5641386395317227</v>
       </c>
     </row>
     <row r="5">
@@ -4884,19 +4884,19 @@
         <v>139106</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>119100</v>
+        <v>118708</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>161528</v>
+        <v>159957</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2061434623057192</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.176496752053444</v>
+        <v>0.1759160983997992</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2393712786246026</v>
+        <v>0.2370438503053646</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>65</v>
@@ -4905,19 +4905,19 @@
         <v>65169</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51241</v>
+        <v>50671</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>82286</v>
+        <v>82291</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.097017292966685</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07628255340614634</v>
+        <v>0.07543315165892019</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1224988520500097</v>
+        <v>0.1225057014826188</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>200</v>
@@ -4926,19 +4926,19 @@
         <v>204275</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>178325</v>
+        <v>177593</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>229085</v>
+        <v>233637</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1517047799195304</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1324330498333384</v>
+        <v>0.1318892745313514</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1701299562341475</v>
+        <v>0.1735107524905584</v>
       </c>
     </row>
     <row r="6">
@@ -4955,19 +4955,19 @@
         <v>17902</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11010</v>
+        <v>10559</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28873</v>
+        <v>27876</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02652966956967455</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01631667114678593</v>
+        <v>0.01564692334615215</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.042787057922041</v>
+        <v>0.04131041785705977</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -4976,19 +4976,19 @@
         <v>9898</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5339</v>
+        <v>5227</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17251</v>
+        <v>16917</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01473441396593031</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007948213718129026</v>
+        <v>0.007781208685461211</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0256821147898708</v>
+        <v>0.02518463685951938</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -4997,19 +4997,19 @@
         <v>27800</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18958</v>
+        <v>19182</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>39122</v>
+        <v>40269</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02064548819168439</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0140791576063253</v>
+        <v>0.0142457523987461</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02905379156457043</v>
+        <v>0.02990596156594499</v>
       </c>
     </row>
     <row r="7">
@@ -5026,19 +5026,19 @@
         <v>232649</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>208706</v>
+        <v>207433</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>259821</v>
+        <v>257379</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3447679383926315</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3092852768575462</v>
+        <v>0.3073987836695125</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3850342185697835</v>
+        <v>0.3814150222951102</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>158</v>
@@ -5047,19 +5047,19 @@
         <v>159465</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>139056</v>
+        <v>140105</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>185522</v>
+        <v>184046</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2373941423300877</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2070121878796178</v>
+        <v>0.2085730061870168</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2761856553880637</v>
+        <v>0.2739874893262766</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>378</v>
@@ -5068,19 +5068,19 @@
         <v>392114</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>362022</v>
+        <v>358438</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>426718</v>
+        <v>423965</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2912034449640384</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2688553987675515</v>
+        <v>0.2661937592726084</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3169018003242846</v>
+        <v>0.3148576450792412</v>
       </c>
     </row>
     <row r="8">
@@ -5172,19 +5172,19 @@
         <v>465929</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>435659</v>
+        <v>433511</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>497172</v>
+        <v>499185</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4561850593405155</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4265486066828709</v>
+        <v>0.424445274849226</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4867753241339579</v>
+        <v>0.4887456987371063</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>614</v>
@@ -5193,19 +5193,19 @@
         <v>666129</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>631624</v>
+        <v>636753</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>698133</v>
+        <v>698392</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6392884110461581</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6061737752357244</v>
+        <v>0.6110960521188129</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6700025814889148</v>
+        <v>0.6702516911556257</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1052</v>
@@ -5214,19 +5214,19 @@
         <v>1132058</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1079941</v>
+        <v>1084424</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1177626</v>
+        <v>1181929</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5486519338580468</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5233934070761737</v>
+        <v>0.5255662423832236</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5707367196071543</v>
+        <v>0.5728220289319953</v>
       </c>
     </row>
     <row r="10">
@@ -5243,19 +5243,19 @@
         <v>215642</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>190982</v>
+        <v>188632</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>242089</v>
+        <v>243731</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2111324331667294</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.186988090305927</v>
+        <v>0.1846877170594103</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2370267219834224</v>
+        <v>0.2386344856466417</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>101</v>
@@ -5264,19 +5264,19 @@
         <v>104928</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>82723</v>
+        <v>86898</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>123206</v>
+        <v>125778</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.100700280229377</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0793899708667192</v>
+        <v>0.08339635473738133</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1182418192372347</v>
+        <v>0.120710371974841</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>305</v>
@@ -5285,19 +5285,19 @@
         <v>320570</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>288043</v>
+        <v>288021</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>354547</v>
+        <v>353956</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1553643877801286</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1396000403932088</v>
+        <v>0.1395894976539778</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1718311023434732</v>
+        <v>0.1715450244060657</v>
       </c>
     </row>
     <row r="11">
@@ -5314,19 +5314,19 @@
         <v>27762</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17993</v>
+        <v>18102</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>41693</v>
+        <v>40821</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02718130810341733</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01761650851867162</v>
+        <v>0.0177230453782653</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04082076596037376</v>
+        <v>0.03996776437928845</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -5335,19 +5335,19 @@
         <v>22697</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14095</v>
+        <v>14907</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>33760</v>
+        <v>34071</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02178213547115386</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01352750567088421</v>
+        <v>0.01430646516440832</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0323994629247809</v>
+        <v>0.0326985309656253</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>46</v>
@@ -5356,19 +5356,19 @@
         <v>50459</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>37660</v>
+        <v>36985</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>66888</v>
+        <v>67641</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02445473530376382</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01825203406918742</v>
+        <v>0.01792472826840952</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03241729204684967</v>
+        <v>0.03278235796917678</v>
       </c>
     </row>
     <row r="12">
@@ -5385,19 +5385,19 @@
         <v>312026</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>282857</v>
+        <v>283845</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>341938</v>
+        <v>345723</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3055011993893378</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2769421772780349</v>
+        <v>0.2779092363072987</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3347874832726009</v>
+        <v>0.3384933473274179</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>239</v>
@@ -5406,19 +5406,19 @@
         <v>248231</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>219734</v>
+        <v>219779</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>276702</v>
+        <v>276815</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2382291732533111</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2108797613941481</v>
+        <v>0.2109232646654168</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2655525704067666</v>
+        <v>0.2656608339405019</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>523</v>
@@ -5427,19 +5427,19 @@
         <v>560258</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>521922</v>
+        <v>516247</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>606169</v>
+        <v>598516</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2715289430580607</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2529495386565986</v>
+        <v>0.2501991115937765</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2937801359139778</v>
+        <v>0.2900710995891018</v>
       </c>
     </row>
     <row r="13">
@@ -5531,19 +5531,19 @@
         <v>302069</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>274505</v>
+        <v>276325</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>332901</v>
+        <v>330608</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3981469512450446</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3618151098305445</v>
+        <v>0.3642137449983498</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4387854669589807</v>
+        <v>0.4357622165683125</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>436</v>
@@ -5552,19 +5552,19 @@
         <v>473927</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>446137</v>
+        <v>445161</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>501184</v>
+        <v>497991</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6053519818988328</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5698549798200564</v>
+        <v>0.5686084573314547</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6401675039775395</v>
+        <v>0.6360890178150214</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>716</v>
@@ -5573,19 +5573,19 @@
         <v>775996</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>735902</v>
+        <v>734550</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>818544</v>
+        <v>816761</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5033763042390751</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4773681146346989</v>
+        <v>0.4764907434938067</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5309767167592641</v>
+        <v>0.5298198822213526</v>
       </c>
     </row>
     <row r="15">
@@ -5602,19 +5602,19 @@
         <v>144517</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>122822</v>
+        <v>123352</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>169581</v>
+        <v>167232</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.190482981828669</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1618876875262325</v>
+        <v>0.1625864011210591</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2235181803651868</v>
+        <v>0.2204228513247259</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>79</v>
@@ -5623,19 +5623,19 @@
         <v>82166</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>66589</v>
+        <v>64675</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>100626</v>
+        <v>102460</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1049516641247674</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08505513871307102</v>
+        <v>0.0826106538864778</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1285308596080929</v>
+        <v>0.1308729801327816</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>215</v>
@@ -5644,19 +5644,19 @@
         <v>226683</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>198984</v>
+        <v>197370</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>255943</v>
+        <v>255176</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1470457873054004</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1290775895423565</v>
+        <v>0.1280309808185365</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1660264796676358</v>
+        <v>0.1655283967995796</v>
       </c>
     </row>
     <row r="16">
@@ -5673,19 +5673,19 @@
         <v>18082</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11491</v>
+        <v>10586</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28468</v>
+        <v>27153</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02383266448332127</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01514555989548739</v>
+        <v>0.01395293598113462</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03752295320554413</v>
+        <v>0.03578984357188516</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -5694,19 +5694,19 @@
         <v>17593</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9949</v>
+        <v>10665</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27976</v>
+        <v>29294</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0224718823451469</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01270848086503095</v>
+        <v>0.01362238549185093</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0357339704323572</v>
+        <v>0.03741733859240282</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>34</v>
@@ -5715,19 +5715,19 @@
         <v>35675</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25741</v>
+        <v>24149</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50309</v>
+        <v>48941</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02314158944757476</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01669782595892496</v>
+        <v>0.01566490778381211</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03263485342762563</v>
+        <v>0.03174716439692003</v>
       </c>
     </row>
     <row r="17">
@@ -5744,19 +5744,19 @@
         <v>294020</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>265030</v>
+        <v>266629</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>321886</v>
+        <v>322005</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3875374024429651</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3493266417142442</v>
+        <v>0.3514337468983224</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.424266968148072</v>
+        <v>0.42442324770755</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>202</v>
@@ -5765,19 +5765,19 @@
         <v>209209</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>183619</v>
+        <v>185403</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>233917</v>
+        <v>233112</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.267224471631253</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2345380953987054</v>
+        <v>0.2368174467173923</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2987851683129794</v>
+        <v>0.297756216668312</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>464</v>
@@ -5786,19 +5786,19 @@
         <v>503228</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>464972</v>
+        <v>465822</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>541070</v>
+        <v>543248</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3264363190079498</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3016202743755123</v>
+        <v>0.3021716959156721</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.350983426174952</v>
+        <v>0.3523966212863976</v>
       </c>
     </row>
     <row r="18">
@@ -5890,19 +5890,19 @@
         <v>451596</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>420964</v>
+        <v>421383</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>480855</v>
+        <v>481714</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4816674508991481</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4489957220598578</v>
+        <v>0.4494431092319267</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5128754837735308</v>
+        <v>0.5137917925916682</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>592</v>
@@ -5911,19 +5911,19 @@
         <v>650194</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>615787</v>
+        <v>616607</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>682990</v>
+        <v>681365</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6236909835669702</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5906864479579826</v>
+        <v>0.5914726533085229</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6551501196582135</v>
+        <v>0.6535914331055074</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1040</v>
@@ -5932,19 +5932,19 @@
         <v>1101790</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1051493</v>
+        <v>1062156</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1146442</v>
+        <v>1152062</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5564422423997628</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5310405956249755</v>
+        <v>0.5364257415190392</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5789931225706736</v>
+        <v>0.581831356837012</v>
       </c>
     </row>
     <row r="20">
@@ -5961,19 +5961,19 @@
         <v>198679</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>174983</v>
+        <v>174725</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>223971</v>
+        <v>225025</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2119096182112377</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1866356489637966</v>
+        <v>0.1863602431277987</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2388849165418885</v>
+        <v>0.2400098488043719</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>120</v>
@@ -5982,19 +5982,19 @@
         <v>134916</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>112446</v>
+        <v>111974</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>160083</v>
+        <v>158377</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1294163018436399</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1078626200722456</v>
+        <v>0.1074093248222362</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1535580011775889</v>
+        <v>0.1519213140956111</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>321</v>
@@ -6003,19 +6003,19 @@
         <v>333595</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>302677</v>
+        <v>300217</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>367865</v>
+        <v>367405</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.16847723474836</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1528625523644603</v>
+        <v>0.1516198823570606</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1857848095182517</v>
+        <v>0.1855523634818304</v>
       </c>
     </row>
     <row r="21">
@@ -6032,19 +6032,19 @@
         <v>29618</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>21316</v>
+        <v>19993</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>42443</v>
+        <v>41679</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03159057584875612</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0227353115368572</v>
+        <v>0.0213245989641943</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04526947007796404</v>
+        <v>0.04445482045384089</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>22</v>
@@ -6053,19 +6053,19 @@
         <v>24216</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>16309</v>
+        <v>15941</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>36459</v>
+        <v>36404</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02322927427270122</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01564421894867302</v>
+        <v>0.01529142550928363</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03497269202283247</v>
+        <v>0.0349204635826621</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>52</v>
@@ -6074,19 +6074,19 @@
         <v>53835</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>39482</v>
+        <v>41499</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>68272</v>
+        <v>71217</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0271883858012407</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0199395674339668</v>
+        <v>0.02095831335265322</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03447959619880393</v>
+        <v>0.0359670779623054</v>
       </c>
     </row>
     <row r="22">
@@ -6103,19 +6103,19 @@
         <v>257674</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>231605</v>
+        <v>231527</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>286594</v>
+        <v>284928</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2748323550408581</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2470281518808938</v>
+        <v>0.2469449061677401</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3056783263296438</v>
+        <v>0.3039016815570292</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>224</v>
@@ -6124,19 +6124,19 @@
         <v>233168</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>205318</v>
+        <v>206238</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>261206</v>
+        <v>261234</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2236634403166888</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1969484920658584</v>
+        <v>0.1978317223167042</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2505584238971454</v>
+        <v>0.2505853798586457</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>477</v>
@@ -6145,19 +6145,19 @@
         <v>490842</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>449597</v>
+        <v>449944</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>528540</v>
+        <v>528746</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2478921370506364</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2270620759540664</v>
+        <v>0.2272374854864844</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2669312520346741</v>
+        <v>0.2670353180194693</v>
       </c>
     </row>
     <row r="23">
@@ -6249,19 +6249,19 @@
         <v>1504736</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1450915</v>
+        <v>1448682</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1565541</v>
+        <v>1569214</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4435591641651775</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4276939505521336</v>
+        <v>0.4270358724905596</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4614828610967788</v>
+        <v>0.4625656026468977</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2073</v>
@@ -6270,19 +6270,19 @@
         <v>2227448</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2166548</v>
+        <v>2163005</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2293657</v>
+        <v>2288809</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6293820004551663</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6121744119064105</v>
+        <v>0.6111731160876189</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6480899461468816</v>
+        <v>0.6467200417595825</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3519</v>
@@ -6291,19 +6291,19 @@
         <v>3732184</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3646820</v>
+        <v>3642119</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3823369</v>
+        <v>3821386</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5384368402133998</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5261214922158147</v>
+        <v>0.5254432532434029</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5515920165910595</v>
+        <v>0.5513058967542152</v>
       </c>
     </row>
     <row r="25">
@@ -6320,19 +6320,19 @@
         <v>697944</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>647794</v>
+        <v>651839</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>742728</v>
+        <v>749015</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2057367532602741</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1909535785553582</v>
+        <v>0.1921459498809383</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2189378201665188</v>
+        <v>0.2207912818820682</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>365</v>
@@ -6341,19 +6341,19 @@
         <v>387179</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>351017</v>
+        <v>348383</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>427816</v>
+        <v>426604</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1094004155006001</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0991823492206081</v>
+        <v>0.09843825104383849</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1208826575741407</v>
+        <v>0.1205401677505838</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1041</v>
@@ -6362,19 +6362,19 @@
         <v>1085124</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1022461</v>
+        <v>1024257</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1147943</v>
+        <v>1155420</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1565492151292199</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1475089852695105</v>
+        <v>0.1477680454844669</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1656120306510051</v>
+        <v>0.1666907876674958</v>
       </c>
     </row>
     <row r="26">
@@ -6391,19 +6391,19 @@
         <v>93364</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>75035</v>
+        <v>75049</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>114060</v>
+        <v>114075</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02752138559501326</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02211833322008539</v>
+        <v>0.02212258499853472</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03362208984942767</v>
+        <v>0.03362652390663362</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>72</v>
@@ -6412,19 +6412,19 @@
         <v>74404</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>59806</v>
+        <v>59067</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>93822</v>
+        <v>92631</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02102331796683824</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01689850649786415</v>
+        <v>0.01668995911509733</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02651008258389173</v>
+        <v>0.02617368020891655</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>160</v>
@@ -6433,19 +6433,19 @@
         <v>167768</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>141838</v>
+        <v>144492</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>192867</v>
+        <v>196162</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02420359340286683</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02046280894665433</v>
+        <v>0.02084569549200303</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02782465253678657</v>
+        <v>0.02829997451364542</v>
       </c>
     </row>
     <row r="27">
@@ -6462,19 +6462,19 @@
         <v>1096370</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1038189</v>
+        <v>1038130</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1154637</v>
+        <v>1152168</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3231826969795352</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.306032476966597</v>
+        <v>0.3060150122681587</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3403585154711808</v>
+        <v>0.3396307694723886</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>823</v>
@@ -6483,19 +6483,19 @@
         <v>850072</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>797600</v>
+        <v>795827</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>902985</v>
+        <v>903719</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2401942660773953</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2253677320290722</v>
+        <v>0.2248667491576408</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2551452207169609</v>
+        <v>0.2553526379146115</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1842</v>
@@ -6504,19 +6504,19 @@
         <v>1946442</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1861219</v>
+        <v>1874671</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2019802</v>
+        <v>2033306</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2808103512545135</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2685153365394617</v>
+        <v>0.2704561020639381</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2913938707064448</v>
+        <v>0.2933421630511349</v>
       </c>
     </row>
     <row r="28">
